--- a/out/results_2024-04-23 - Sao chép.xlsx
+++ b/out/results_2024-04-23 - Sao chép.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>9-4-10</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>10.672</t>
+  </si>
+  <si>
+    <t>timeout</t>
   </si>
 </sst>
 </file>
@@ -282,10 +285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,11 +789,23 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3">
+        <v>900</v>
+      </c>
+      <c r="G11" s="3">
+        <v>15697265</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -862,7 +878,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -885,7 +901,7 @@
         <v>18698885</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -899,7 +915,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -910,7 +926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -924,7 +940,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -938,7 +954,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -952,7 +968,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -966,7 +982,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -980,7 +996,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1005,7 +1021,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1019,7 +1035,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1033,7 +1049,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1046,8 +1062,15 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1060,8 +1083,15 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1083,8 +1113,15 @@
       <c r="G31">
         <v>6013</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1106,8 +1143,15 @@
       <c r="G32">
         <v>24906</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1129,8 +1173,15 @@
       <c r="G33">
         <v>37786</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1152,8 +1203,15 @@
       <c r="G34">
         <v>52955</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1175,8 +1233,15 @@
       <c r="G35">
         <v>70413</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1199,7 +1264,7 @@
         <v>1427054</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1222,7 +1287,7 @@
         <v>2883899</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1245,7 +1310,7 @@
         <v>4370535</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1268,7 +1333,7 @@
         <v>5886962</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1291,7 +1356,7 @@
         <v>7433180</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1314,7 +1379,7 @@
         <v>9009189</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1337,7 +1402,7 @@
         <v>90160</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1360,40 +1425,76 @@
         <v>10614989</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2048</v>
+      </c>
+      <c r="G44" s="3">
+        <v>12250580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2304</v>
+      </c>
+      <c r="G45" s="3">
+        <v>13915962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2560</v>
+      </c>
+      <c r="G46" s="3">
+        <v>15611135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1416,7 +1517,7 @@
         <v>18923478</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1466,22 +1567,46 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>40</v>
+      <c r="C50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2916</v>
+      </c>
+      <c r="G50" s="3">
+        <v>29036322</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>40</v>
+      <c r="C51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3240</v>
+      </c>
+      <c r="G51" s="3">
+        <v>32503730</v>
       </c>
     </row>
   </sheetData>
